--- a/DRRMOFingerprintApp/Document/Registration-Form.xlsx
+++ b/DRRMOFingerprintApp/Document/Registration-Form.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -200,13 +200,19 @@
   </si>
   <si>
     <t>OFFICE NAME</t>
+  </si>
+  <si>
+    <t>PERSON ID #</t>
+  </si>
+  <si>
+    <t>For DRRMO Processor ONLY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,13 +273,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -467,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -628,33 +645,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1867,70 +1893,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>32</v>
       </c>
+      <c r="H7" s="83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="H8" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:10" ht="23.1" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -1948,25 +1987,25 @@
     </row>
     <row r="11" spans="1:10" ht="23.1" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70" t="s">
+      <c r="E11" s="68"/>
+      <c r="F11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="70"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="71"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" spans="1:10" ht="23.1" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -2008,11 +2047,11 @@
       <c r="C14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2199,10 +2238,10 @@
         <v>49</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="70"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="40" t="s">
         <v>51</v>
       </c>
@@ -2258,20 +2297,20 @@
         <v>55</v>
       </c>
       <c r="B30" s="24"/>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="64" t="s">
         <v>52</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="1:10" ht="23.1" customHeight="1">
       <c r="A31" s="47" t="s">
@@ -2383,18 +2422,18 @@
     <row r="42" spans="1:10" ht="23.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/DRRMOFingerprintApp/Document/Registration-Form.xlsx
+++ b/DRRMOFingerprintApp/Document/Registration-Form.xlsx
@@ -645,33 +645,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -681,6 +654,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1882,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -1893,83 +1893,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="74" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="23.1" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -1987,25 +1987,25 @@
     </row>
     <row r="11" spans="1:10" ht="23.1" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68" t="s">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68" t="s">
+      <c r="E11" s="77"/>
+      <c r="F11" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="76"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10" ht="23.1" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -2047,11 +2047,11 @@
       <c r="C14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2238,10 +2238,10 @@
         <v>49</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="68"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="40" t="s">
         <v>51</v>
       </c>
@@ -2297,20 +2297,20 @@
         <v>55</v>
       </c>
       <c r="B30" s="24"/>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="64" t="s">
         <v>52</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
     </row>
     <row r="31" spans="1:10" ht="23.1" customHeight="1">
       <c r="A31" s="47" t="s">
@@ -2422,21 +2422,21 @@
     <row r="42" spans="1:10" ht="23.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.62992125984251968" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/DRRMOFingerprintApp/Document/Registration-Form.xlsx
+++ b/DRRMOFingerprintApp/Document/Registration-Form.xlsx
@@ -166,12 +166,6 @@
     <t>DESIGNATION</t>
   </si>
   <si>
-    <t>Job Order</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
     <t>COLLEGE</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>Name of School</t>
   </si>
   <si>
-    <t>Please specify</t>
-  </si>
-  <si>
     <t>HIGHEST EDUCATIONAL QUALIFICATION</t>
   </si>
   <si>
@@ -206,6 +197,15 @@
   </si>
   <si>
     <t>For DRRMO Processor ONLY</t>
+  </si>
+  <si>
+    <t>Please specify:</t>
+  </si>
+  <si>
+    <t>Volunteer                       Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Job Order                                 Regular</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,9 +569,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -654,6 +651,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,6 +665,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1179,15 +1182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>110214</xdr:colOff>
+      <xdr:colOff>38326</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>78352</xdr:rowOff>
+      <xdr:rowOff>168212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>310240</xdr:colOff>
+      <xdr:colOff>179715</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>211702</xdr:rowOff>
+      <xdr:rowOff>262471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1196,60 +1199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4603139" y="6548163"/>
-          <a:ext cx="200026" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1001">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523219</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>77990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>112207</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>211340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5627181" y="6547801"/>
-          <a:ext cx="200026" cy="133350"/>
+          <a:off x="4531251" y="6647009"/>
+          <a:ext cx="141389" cy="94259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1562,6 +1513,162 @@
         <a:xfrm>
           <a:off x="4242314" y="8307954"/>
           <a:ext cx="200026" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37964</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179353</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109347</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4530889" y="6493885"/>
+          <a:ext cx="141389" cy="94259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450969</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>592358</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>270733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5554931" y="6655271"/>
+          <a:ext cx="141389" cy="94259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450607</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591996</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5554569" y="6493161"/>
+          <a:ext cx="141389" cy="94259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1882,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1952,24 +2059,24 @@
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="74" t="s">
-        <v>63</v>
+      <c r="H7" s="73" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="H8" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="H8" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" ht="23.1" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -2047,11 +2154,11 @@
       <c r="C14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2112,16 +2219,16 @@
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="41" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="11"/>
@@ -2130,14 +2237,14 @@
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="16"/>
@@ -2151,10 +2258,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2165,14 +2272,14 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="53" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="13"/>
@@ -2181,14 +2288,14 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="54" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="53" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="13"/>
@@ -2197,14 +2304,14 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="23"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="56" t="s">
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="19"/>
@@ -2213,49 +2320,49 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" ht="23.1" customHeight="1" thickTop="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="46" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="77"/>
-      <c r="J26" s="40" t="s">
-        <v>51</v>
+      <c r="H26" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="79"/>
+      <c r="J26" s="74" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="57" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="47" t="s">
-        <v>61</v>
+      <c r="F27" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="3"/>
@@ -2263,14 +2370,14 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="57" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="47" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="19"/>
@@ -2280,7 +2387,7 @@
     </row>
     <row r="29" spans="1:10" ht="23.1" customHeight="1" thickTop="1">
       <c r="A29" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="13"/>
@@ -2293,35 +2400,35 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A30" s="46" t="s">
-        <v>55</v>
+      <c r="A30" s="45" t="s">
+        <v>53</v>
       </c>
       <c r="B30" s="24"/>
-      <c r="C30" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="64" t="s">
-        <v>52</v>
+      <c r="C30" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="63" t="s">
+        <v>50</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80"/>
+      <c r="H30" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="80"/>
+      <c r="J30" s="81"/>
     </row>
     <row r="31" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A31" s="47" t="s">
-        <v>56</v>
+      <c r="A31" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="63" t="s">
-        <v>54</v>
+      <c r="F31" s="62" t="s">
+        <v>52</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="3"/>
@@ -2329,19 +2436,19 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A32" s="48" t="s">
-        <v>53</v>
+      <c r="A32" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="66" t="s">
-        <v>57</v>
+      <c r="F32" s="65" t="s">
+        <v>55</v>
       </c>
       <c r="G32" s="19"/>
-      <c r="H32" s="67" t="s">
-        <v>59</v>
+      <c r="H32" s="66" t="s">
+        <v>61</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
@@ -2352,11 +2459,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="24"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2366,14 +2473,14 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22">
         <v>1</v>
       </c>
-      <c r="D35" s="62"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="22">
@@ -2389,7 +2496,7 @@
       <c r="C36" s="22">
         <v>2</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="22">

--- a/DRRMOFingerprintApp/Document/Registration-Form.xlsx
+++ b/DRRMOFingerprintApp/Document/Registration-Form.xlsx
@@ -654,6 +654,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,24 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1989,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2000,60 +2000,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
@@ -2094,25 +2094,25 @@
     </row>
     <row r="11" spans="1:10" ht="23.1" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="77"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="78"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:10" ht="23.1" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -2154,11 +2154,11 @@
       <c r="C14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2345,10 +2345,10 @@
         <v>49</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="79" t="s">
+      <c r="H26" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="79"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="74" t="s">
         <v>62</v>
       </c>
@@ -2404,20 +2404,20 @@
         <v>53</v>
       </c>
       <c r="B30" s="24"/>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="63" t="s">
         <v>50</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="80" t="s">
+      <c r="H30" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="80"/>
-      <c r="J30" s="81"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="77"/>
     </row>
     <row r="31" spans="1:10" ht="23.1" customHeight="1">
       <c r="A31" s="46" t="s">
@@ -2529,18 +2529,18 @@
     <row r="42" spans="1:10" ht="23.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.62992125984251968" header="0.31496062992125984" footer="0.31496062992125984"/>
